--- a/example/out/nodes.xlsx
+++ b/example/out/nodes.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Label</t>
   </si>
   <si>
     <t>Size</t>
+  </si>
+  <si>
+    <t>Internal similarity</t>
   </si>
   <si>
     <t>Id</t>
@@ -404,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -420,93 +423,120 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>110301</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>0.01074707771453344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>5921</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0.01124042293043961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>13935</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0.009835417751282424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>8237</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0.0101043077680996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>22530</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>0.01116655680505308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>4772</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>0.01807679373878268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>0.006059091752804076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>20000</v>
+      </c>
+      <c r="D9">
+        <v>0.004216462565688538</v>
       </c>
     </row>
   </sheetData>
